--- a/resources/flujos-enero2025.xlsx
+++ b/resources/flujos-enero2025.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive\Escritorio\Sistemas\Sistema Valora\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5DE5E96-B8C6-4CFE-82A5-FBF58444997D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904369C5-2EEE-48E8-BEF3-A8D4C376D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4035" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{EFD3EDA7-5FD6-4F81-A579-259DD1E70E59}"/>
+    <workbookView xWindow="-630" yWindow="-13200" windowWidth="21600" windowHeight="11295" xr2:uid="{EFD3EDA7-5FD6-4F81-A579-259DD1E70E59}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$169</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="237">
   <si>
     <t>WS SANTANDER</t>
   </si>
@@ -188,9 +191,6 @@
     <t>TRASPASO A BBVA</t>
   </si>
   <si>
-    <t>ws promotoroa</t>
-  </si>
-  <si>
     <t xml:space="preserve">SERV ADMIN 10 ENE 2025 REF 0000000                                                        </t>
   </si>
   <si>
@@ -233,9 +233,6 @@
     <t xml:space="preserve">TRANSF 10 01 2025 WS PROMOTORA           012020004441188047                               </t>
   </si>
   <si>
-    <t>issstecali</t>
-  </si>
-  <si>
     <t>TECNOLOGIA COMPUTACION Y SOPORTE</t>
   </si>
   <si>
@@ -435,9 +432,6 @@
   </si>
   <si>
     <t xml:space="preserve">giselda triana                           072580004170689290                               </t>
-  </si>
-  <si>
-    <t>Conbranza Extrajudicial</t>
   </si>
   <si>
     <t xml:space="preserve">Sin informaci n                          072580011366853344                               </t>
@@ -585,9 +579,6 @@
     <t>NOMINA 1Q ENERO 2025</t>
   </si>
   <si>
-    <t>NOMINA FISCAL WS</t>
-  </si>
-  <si>
     <t>SEYDEL SYLVANA CELESTE LOPEZ LUGO</t>
   </si>
   <si>
@@ -757,6 +748,9 @@
   </si>
   <si>
     <t>DEP EN EFECTIV  00000000000000083500</t>
+  </si>
+  <si>
+    <t>ISSSTECALI</t>
   </si>
 </sst>
 </file>
@@ -841,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,9 +859,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,13 +1196,13 @@
   <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
@@ -1221,7 +1212,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="3">
         <v>45660</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1242,7 +1233,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="3">
         <v>45660</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1263,7 +1254,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="3">
         <v>45660</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1284,7 +1275,7 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="3">
         <v>45660</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1305,7 +1296,7 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="3">
         <v>45660</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1326,7 +1317,7 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="3">
         <v>45660</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1347,7 +1338,7 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="3">
         <v>45660</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1368,7 +1359,7 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="3">
         <v>45660</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1389,7 +1380,7 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="3">
         <v>45660</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1410,7 +1401,7 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="3">
         <v>45660</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1431,7 +1422,7 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="3">
         <v>45660</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1452,7 +1443,7 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="3">
         <v>45660</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1473,7 +1464,7 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="3">
         <v>45663</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1494,7 +1485,7 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="3">
         <v>45663</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1515,7 +1506,7 @@
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="7">
         <v>45663</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1536,7 +1527,7 @@
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="3">
         <v>45663</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1557,7 +1548,7 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="3">
         <v>45663</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1578,7 +1569,7 @@
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="3">
         <v>45663</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1599,7 +1590,7 @@
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="3">
         <v>45663</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1620,7 +1611,7 @@
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="3">
         <v>45664</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1641,7 +1632,7 @@
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="3">
         <v>45664</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1662,7 +1653,7 @@
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="3">
         <v>45665</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1683,7 +1674,7 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="3">
         <v>45665</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1704,7 +1695,7 @@
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="3">
         <v>45666</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1725,7 +1716,7 @@
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="3">
         <v>45666</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1746,7 +1737,7 @@
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="3">
         <v>45666</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1760,21 +1751,21 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="3">
         <v>45667</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="4">
         <v>624</v>
@@ -1788,35 +1779,35 @@
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="3">
         <v>45667</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="4">
         <v>20047.419999999998</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="3">
         <v>45667</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="4">
         <v>65000</v>
@@ -1830,7 +1821,7 @@
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="3">
         <v>45667</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1851,91 +1842,91 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="3">
         <v>45667</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E31" s="4">
         <v>16503.32</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="3">
         <v>45667</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E32" s="4">
         <v>4181.87</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="3">
         <v>45667</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E33" s="4">
         <v>15571.41</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="3">
         <v>45667</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="5">
         <v>138507.54999999999</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="3">
         <v>45667</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -1956,133 +1947,133 @@
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="3">
         <v>45667</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E36" s="4">
         <v>14592.8</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="3">
         <v>45667</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" s="4">
         <v>14733.34</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="3">
         <v>45667</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E38" s="4">
         <v>562</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="3">
         <v>45667</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="5">
         <v>103977.23</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="3">
         <v>45667</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E40" s="4">
         <v>52000</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="3">
         <v>45667</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E41" s="4">
         <v>201250.4</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="3">
         <v>45667</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2103,14 +2094,14 @@
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="7">
         <v>45670</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9">
@@ -2124,28 +2115,28 @@
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="3">
         <v>45670</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5">
         <v>951268</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="3">
         <v>45670</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2166,14 +2157,14 @@
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="3">
         <v>45670</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E46" s="4">
         <v>500000</v>
@@ -2187,14 +2178,14 @@
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="3">
         <v>45670</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E47" s="4">
         <v>1976</v>
@@ -2208,70 +2199,70 @@
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="3">
         <v>45670</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E48" s="4">
         <v>624</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="3">
         <v>45660</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E49" s="4">
         <v>503.4</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="3">
         <v>45664</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E50" s="4">
         <v>369.8</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="3">
         <v>45666</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2292,70 +2283,70 @@
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="3">
         <v>45666</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E52" s="4">
         <v>2488</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="3">
         <v>45666</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="4">
         <v>2705</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="3">
         <v>45666</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E54" s="4">
         <v>711</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="3">
         <v>45667</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2376,217 +2367,217 @@
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="3">
         <v>45667</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E56" s="4">
         <v>3654</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="3">
         <v>45667</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E57" s="4">
         <v>3182.57</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="3">
         <v>45667</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E58" s="4">
         <v>649</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="3">
         <v>45667</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E59" s="4">
         <v>3828</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="3">
         <v>45667</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E60" s="4">
         <v>13920</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="3">
         <v>45667</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61" s="4">
         <v>5104</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="3">
         <v>45667</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62" s="4">
         <v>6960</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="3">
         <v>45667</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E63" s="5">
         <v>22462.44</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="3">
         <v>45667</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E64" s="5">
         <v>1127</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="3">
         <v>45667</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E65" s="5">
         <v>2816.36</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="3">
         <v>45667</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -2607,77 +2598,77 @@
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="3">
         <v>45667</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E67" s="5">
         <v>9865.2999999999993</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="3">
         <v>45670</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E68" s="5">
         <v>200</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="13">
+        <v>126</v>
+      </c>
+      <c r="B69" s="3">
         <v>45672</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="10">
         <v>21836.2</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="3">
         <v>45671</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E70" s="5">
         <v>3929.97</v>
@@ -2691,7 +2682,7 @@
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="3">
         <v>45671</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -2712,35 +2703,35 @@
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="3">
         <v>45671</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="10">
         <v>955</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="3">
         <v>45671</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="10">
@@ -2754,14 +2745,14 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="3">
         <v>45671</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="10">
@@ -2775,14 +2766,14 @@
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="3">
         <v>45672</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="10">
@@ -2796,14 +2787,14 @@
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="3">
         <v>45672</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="10">
@@ -2817,14 +2808,14 @@
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="3">
         <v>45672</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="10">
@@ -2838,14 +2829,14 @@
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="3">
         <v>45672</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="10">
@@ -2859,14 +2850,14 @@
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="3">
         <v>45672</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="10">
@@ -2880,14 +2871,14 @@
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="3">
         <v>45672</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="10">
@@ -2901,14 +2892,14 @@
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="3">
         <v>45672</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="10">
@@ -2922,35 +2913,35 @@
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="3">
         <v>45672</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E82" s="5">
         <v>624</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="3">
         <v>45672</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="10">
@@ -2964,14 +2955,14 @@
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="3">
         <v>45672</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="10">
@@ -2985,14 +2976,14 @@
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="3">
         <v>45672</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="10">
@@ -3006,49 +2997,49 @@
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="3">
         <v>45672</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="10">
         <v>79672.490000000005</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="3">
         <v>45672</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="10">
         <v>184563.67</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="3">
         <v>45672</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -3069,7 +3060,7 @@
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="3">
         <v>45672</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -3090,14 +3081,14 @@
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="3">
         <v>45672</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="10">
@@ -3111,14 +3102,14 @@
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="3">
         <v>45672</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="10">
@@ -3132,14 +3123,14 @@
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="3">
         <v>45672</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="10">
@@ -3153,14 +3144,14 @@
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="3">
         <v>45672</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="10">
@@ -3174,14 +3165,14 @@
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="3">
         <v>45672</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="10">
@@ -3195,35 +3186,35 @@
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="3">
         <v>45672</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="10">
         <v>321871.3</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="3">
         <v>45672</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="10">
@@ -3237,56 +3228,56 @@
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="3">
         <v>45672</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E97" s="5">
         <v>51093.96</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="3">
         <v>45672</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E98" s="5">
         <v>76182.78</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="3">
         <v>45672</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E99" s="5">
         <v>1482</v>
@@ -3300,224 +3291,224 @@
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="3">
         <v>45672</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E100" s="5">
         <v>32303.4</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="3">
         <v>45672</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E101" s="5">
         <v>4029.2</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="3">
         <v>45672</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E102" s="5">
         <v>4082.8</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="3">
         <v>45672</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E103" s="5">
         <v>5322.4</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="3">
         <v>45672</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E104" s="5">
         <v>6213.4</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="3">
         <v>45672</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E105" s="5">
         <v>6213.4</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="3">
         <v>45672</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E106" s="5">
         <v>4012.4</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="13">
+      <c r="B107" s="3">
         <v>45672</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E107" s="5">
         <v>4029.2</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108" s="3">
         <v>45672</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E108" s="5">
         <v>2682</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="13">
+      <c r="B109" s="3">
         <v>45672</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E109" s="5">
         <v>4831.2</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="3">
         <v>45672</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E110" s="5">
         <v>185000</v>
@@ -3531,14 +3522,14 @@
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="3">
         <v>45671</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10">
@@ -3550,14 +3541,14 @@
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="13">
+      <c r="B112" s="3">
         <v>45672</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="10">
@@ -3567,18 +3558,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="13">
+      <c r="B113" s="3">
         <v>45672</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="10">
@@ -3592,7 +3583,7 @@
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="13">
+      <c r="B114" s="3">
         <v>45672</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -3613,112 +3604,112 @@
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B115" s="13">
+      <c r="B115" s="3">
         <v>45672</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E115" s="5">
         <v>174674.08</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116" s="3">
         <v>45672</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E116" s="5">
         <v>2930.4</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="13">
+      <c r="B117" s="3">
         <v>45672</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E117" s="5">
         <v>4548.3999999999996</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118" s="3">
         <v>45672</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E118" s="5">
         <v>1052.4000000000001</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="13">
+      <c r="B119" s="3">
         <v>45672</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E119" s="5">
         <v>1755.2</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="13">
+      <c r="B120" s="3">
         <v>45674</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -3739,53 +3730,53 @@
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="13">
+      <c r="B121" s="3">
         <v>45674</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E121" s="5">
         <v>5604</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="13">
+      <c r="B122" s="3">
         <v>45674</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E122" s="5">
         <v>550</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="13">
+      <c r="B123" s="3">
         <v>45674</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
@@ -3793,18 +3784,18 @@
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="13">
+      <c r="B124" s="3">
         <v>45674</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
@@ -3812,18 +3803,18 @@
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B125" s="13">
+      <c r="B125" s="3">
         <v>45674</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
@@ -3831,105 +3822,105 @@
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="13">
+      <c r="B126" s="3">
         <v>45674</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E126" s="5">
         <v>2418.54</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="13">
+      <c r="B127" s="3">
         <v>45674</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E127" s="5">
         <v>13833.35</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="13">
+      <c r="B128" s="3">
         <v>45674</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E128" s="5">
         <v>503.4</v>
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B129" s="13">
+      <c r="B129" s="3">
         <v>45674</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E129" s="5">
         <v>502.14</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="13">
+      <c r="B130" s="3">
         <v>45674</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E130" s="5">
         <v>198</v>
@@ -3941,77 +3932,77 @@
       <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="13">
+      <c r="B131" s="3">
         <v>45674</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E131" s="5">
         <v>964.44</v>
       </c>
       <c r="F131" s="10"/>
       <c r="G131" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="13">
+      <c r="B132" s="3">
         <v>45674</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E132" s="5">
         <v>1131</v>
       </c>
       <c r="F132" s="10"/>
       <c r="G132" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B133" s="13">
+        <v>126</v>
+      </c>
+      <c r="B133" s="3">
         <v>45678</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="10">
         <v>632058.46</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="13">
+      <c r="B134" s="3">
         <v>45672</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="10">
@@ -4025,14 +4016,14 @@
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="13">
+      <c r="B135" s="3">
         <v>45672</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="10">
@@ -4046,14 +4037,14 @@
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="13">
+      <c r="B136" s="3">
         <v>45673</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="10">
@@ -4067,14 +4058,14 @@
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="13">
+      <c r="B137" s="3">
         <v>45673</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="10">
@@ -4088,14 +4079,14 @@
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="13">
+      <c r="B138" s="3">
         <v>45673</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="10">
@@ -4109,14 +4100,14 @@
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="13">
+      <c r="B139" s="3">
         <v>45673</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E139" s="5">
         <v>6469.32</v>
@@ -4130,14 +4121,14 @@
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="13">
+      <c r="B140" s="3">
         <v>45673</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="10">
@@ -4151,14 +4142,14 @@
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="13">
+      <c r="B141" s="3">
         <v>45674</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="10">
@@ -4172,35 +4163,35 @@
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="13">
+      <c r="B142" s="3">
         <v>45674</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E142" s="5">
         <v>624</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="13">
+      <c r="B143" s="3">
         <v>45674</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E143" s="5">
         <v>2315.8200000000002</v>
@@ -4214,217 +4205,217 @@
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="13">
+      <c r="B144" s="3">
         <v>45674</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="10">
         <v>60494.75</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="13">
+      <c r="B145" s="3">
         <v>45674</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="10">
         <v>20814.75</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="13">
+      <c r="B146" s="3">
         <v>45674</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="10">
         <v>157002.45000000001</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="13">
+      <c r="B147" s="3">
         <v>45674</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="10">
         <v>27495.39</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="13">
+      <c r="B148" s="3">
         <v>45674</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="10">
         <v>3964.14</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="13">
+      <c r="B149" s="3">
         <v>45674</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="10">
         <v>10888.85</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B150" s="13">
+      <c r="B150" s="3">
         <v>45674</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="10">
         <v>55267.88</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="13">
+      <c r="B151" s="3">
         <v>45674</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="10">
         <v>48624.45</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="13">
+      <c r="B152" s="3">
         <v>45674</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="10">
         <v>62705.97</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="13">
+      <c r="B153" s="3">
         <v>45674</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E153" s="5">
         <v>45000</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="13">
+      <c r="B154" s="3">
         <v>45674</v>
       </c>
       <c r="C154" s="4" t="s">
@@ -4438,14 +4429,14 @@
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="13">
+      <c r="B155" s="3">
         <v>45674</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -4466,14 +4457,14 @@
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="13">
+      <c r="B156" s="3">
         <v>45674</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="10">
@@ -4487,56 +4478,56 @@
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="13">
+      <c r="B157" s="3">
         <v>45674</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E157" s="5">
         <v>500</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="13">
+      <c r="B158" s="3">
         <v>45674</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E158" s="5">
         <v>832000</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="13">
+      <c r="B159" s="3">
         <v>45677</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="10">
@@ -4548,35 +4539,35 @@
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="13">
+      <c r="B160" s="3">
         <v>45677</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E160" s="5">
         <v>624</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="13">
+      <c r="B161" s="3">
         <v>45677</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="10">
@@ -4590,14 +4581,14 @@
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="13">
+      <c r="B162" s="3">
         <v>45677</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E162" s="5">
         <v>4963.18</v>
@@ -4611,11 +4602,11 @@
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="13">
+      <c r="B163" s="3">
         <v>45678</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D163" s="4">
         <v>1.19939439420013E+29</v>
@@ -4625,18 +4616,18 @@
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B164" s="13">
+      <c r="B164" s="3">
         <v>45678</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D164" s="4">
         <v>1.1993943912001301E+29</v>
@@ -4646,42 +4637,42 @@
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="13">
+      <c r="B165" s="3">
         <v>45678</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E165" s="5">
         <v>90621.74</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="13">
+      <c r="B166" s="3">
         <v>45678</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E166" s="5">
         <v>2421.56</v>
@@ -4695,35 +4686,35 @@
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B167" s="13">
+      <c r="B167" s="3">
         <v>45678</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E167" s="5">
         <v>632058.46</v>
       </c>
       <c r="F167" s="10"/>
       <c r="G167" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="13">
+      <c r="B168" s="3">
         <v>45678</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="10">
@@ -4735,14 +4726,14 @@
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="13">
+      <c r="B169" s="3">
         <v>45678</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="10">

--- a/resources/flujos-enero2025.xlsx
+++ b/resources/flujos-enero2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive\Escritorio\Sistemas\Sistema Valora\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ccb0a3f35164e5e2/Escritorio/Laravel/Valoracredit/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904369C5-2EEE-48E8-BEF3-A8D4C376D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{904369C5-2EEE-48E8-BEF3-A8D4C376D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EB497B-6CBE-4669-882A-351343B9A844}"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="-13200" windowWidth="21600" windowHeight="11295" xr2:uid="{EFD3EDA7-5FD6-4F81-A579-259DD1E70E59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFD3EDA7-5FD6-4F81-A579-259DD1E70E59}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -835,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,20 +845,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,14 +1198,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551EBD3E-89AE-4EFB-ABA1-F8532E3F3DE4}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
@@ -1212,7 +1215,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="13">
         <v>45660</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1233,7 +1236,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="13">
         <v>45660</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1254,7 +1257,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="13">
         <v>45660</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1275,7 +1278,7 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="13">
         <v>45660</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1296,7 +1299,7 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="13">
         <v>45660</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1317,7 +1320,7 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="13">
         <v>45660</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1338,7 +1341,7 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="13">
         <v>45660</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1359,7 +1362,7 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="13">
         <v>45660</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1380,7 +1383,7 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="13">
         <v>45660</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1401,7 +1404,7 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="13">
         <v>45660</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1422,7 +1425,7 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="13">
         <v>45660</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1443,7 +1446,7 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="13">
         <v>45660</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1464,7 +1467,7 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="13">
         <v>45663</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1485,7 +1488,7 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="13">
         <v>45663</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1506,7 +1509,7 @@
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="14">
         <v>45663</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1527,7 +1530,7 @@
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="13">
         <v>45663</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1548,7 +1551,7 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="13">
         <v>45663</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1569,7 +1572,7 @@
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="13">
         <v>45663</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1590,7 +1593,7 @@
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="13">
         <v>45663</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1611,7 +1614,7 @@
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="13">
         <v>45664</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1632,7 +1635,7 @@
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="13">
         <v>45664</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1653,7 +1656,7 @@
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="13">
         <v>45665</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1674,7 +1677,7 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="13">
         <v>45665</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1695,7 +1698,7 @@
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="13">
         <v>45666</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1716,7 +1719,7 @@
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="13">
         <v>45666</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1737,7 +1740,7 @@
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="13">
         <v>45666</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1758,7 +1761,7 @@
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="13">
         <v>45667</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1779,7 +1782,7 @@
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="13">
         <v>45667</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1800,7 +1803,7 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="13">
         <v>45667</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1821,7 +1824,7 @@
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="13">
         <v>45667</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1842,7 +1845,7 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="13">
         <v>45667</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1863,7 +1866,7 @@
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="13">
         <v>45667</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1884,7 +1887,7 @@
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="13">
         <v>45667</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1905,7 +1908,7 @@
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="13">
         <v>45667</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -1926,7 +1929,7 @@
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="13">
         <v>45667</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -1947,7 +1950,7 @@
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="13">
         <v>45667</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1968,7 +1971,7 @@
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="13">
         <v>45667</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1989,7 +1992,7 @@
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="13">
         <v>45667</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2010,7 +2013,7 @@
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="13">
         <v>45667</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2031,7 +2034,7 @@
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="13">
         <v>45667</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2052,7 +2055,7 @@
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="13">
         <v>45667</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2073,7 +2076,7 @@
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="13">
         <v>45667</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2094,7 +2097,7 @@
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="14">
         <v>45670</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2115,7 +2118,7 @@
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="13">
         <v>45670</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -2136,7 +2139,7 @@
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="13">
         <v>45670</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2157,7 +2160,7 @@
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="13">
         <v>45670</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2178,7 +2181,7 @@
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="13">
         <v>45670</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2199,7 +2202,7 @@
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="13">
         <v>45670</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2220,7 +2223,7 @@
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="13">
         <v>45660</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2241,7 +2244,7 @@
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="13">
         <v>45664</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -2262,7 +2265,7 @@
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="13">
         <v>45666</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2283,7 +2286,7 @@
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="13">
         <v>45666</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -2304,7 +2307,7 @@
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="13">
         <v>45666</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2325,7 +2328,7 @@
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="13">
         <v>45666</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2346,7 +2349,7 @@
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="13">
         <v>45667</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2367,7 +2370,7 @@
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="13">
         <v>45667</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -2388,7 +2391,7 @@
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="13">
         <v>45667</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -2409,7 +2412,7 @@
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="13">
         <v>45667</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2430,7 +2433,7 @@
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="13">
         <v>45667</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2451,7 +2454,7 @@
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="13">
         <v>45667</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -2472,7 +2475,7 @@
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="13">
         <v>45667</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -2493,7 +2496,7 @@
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="13">
         <v>45667</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2514,7 +2517,7 @@
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="13">
         <v>45667</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -2535,7 +2538,7 @@
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="13">
         <v>45667</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -2556,7 +2559,7 @@
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="13">
         <v>45667</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -2577,7 +2580,7 @@
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="13">
         <v>45667</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -2598,7 +2601,7 @@
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="13">
         <v>45667</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -2619,7 +2622,7 @@
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="13">
         <v>45670</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -2640,7 +2643,7 @@
       <c r="A69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="13">
         <v>45672</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -2661,7 +2664,7 @@
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="13">
         <v>45671</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -2682,7 +2685,7 @@
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="13">
         <v>45671</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -2703,7 +2706,7 @@
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="13">
         <v>45671</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -2724,7 +2727,7 @@
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="13">
         <v>45671</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -2745,7 +2748,7 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="13">
         <v>45671</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -2766,7 +2769,7 @@
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="13">
         <v>45672</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -2787,7 +2790,7 @@
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="13">
         <v>45672</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -2808,7 +2811,7 @@
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="13">
         <v>45672</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -2829,7 +2832,7 @@
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="13">
         <v>45672</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -2850,7 +2853,7 @@
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="13">
         <v>45672</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -2871,7 +2874,7 @@
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="13">
         <v>45672</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -2892,7 +2895,7 @@
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="13">
         <v>45672</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -2913,7 +2916,7 @@
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="13">
         <v>45672</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -2934,7 +2937,7 @@
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="13">
         <v>45672</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -2955,7 +2958,7 @@
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="13">
         <v>45672</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -2976,7 +2979,7 @@
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="13">
         <v>45672</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -2997,7 +3000,7 @@
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="13">
         <v>45672</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -3018,7 +3021,7 @@
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="13">
         <v>45672</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -3039,7 +3042,7 @@
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="13">
         <v>45672</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -3060,7 +3063,7 @@
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="13">
         <v>45672</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -3081,7 +3084,7 @@
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="13">
         <v>45672</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3102,7 +3105,7 @@
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="13">
         <v>45672</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -3123,7 +3126,7 @@
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="13">
         <v>45672</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -3144,7 +3147,7 @@
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="13">
         <v>45672</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -3165,7 +3168,7 @@
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="13">
         <v>45672</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -3186,7 +3189,7 @@
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="13">
         <v>45672</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -3207,7 +3210,7 @@
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="13">
         <v>45672</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -3228,7 +3231,7 @@
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="13">
         <v>45672</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -3249,7 +3252,7 @@
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="13">
         <v>45672</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -3270,7 +3273,7 @@
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="13">
         <v>45672</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -3291,7 +3294,7 @@
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="13">
         <v>45672</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -3312,7 +3315,7 @@
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="13">
         <v>45672</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -3333,7 +3336,7 @@
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="13">
         <v>45672</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -3354,7 +3357,7 @@
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="13">
         <v>45672</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -3375,7 +3378,7 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="13">
         <v>45672</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -3396,7 +3399,7 @@
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="13">
         <v>45672</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -3417,7 +3420,7 @@
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="13">
         <v>45672</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -3438,7 +3441,7 @@
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="13">
         <v>45672</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -3459,7 +3462,7 @@
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="13">
         <v>45672</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -3480,7 +3483,7 @@
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="13">
         <v>45672</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -3501,7 +3504,7 @@
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="13">
         <v>45672</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -3522,7 +3525,7 @@
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="13">
         <v>45671</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -3541,7 +3544,7 @@
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="13">
         <v>45672</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -3562,7 +3565,7 @@
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="13">
         <v>45672</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -3583,7 +3586,7 @@
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="13">
         <v>45672</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -3604,7 +3607,7 @@
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="13">
         <v>45672</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -3625,7 +3628,7 @@
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="13">
         <v>45672</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -3646,7 +3649,7 @@
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="13">
         <v>45672</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -3667,7 +3670,7 @@
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="13">
         <v>45672</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -3688,7 +3691,7 @@
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="13">
         <v>45672</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -3709,7 +3712,7 @@
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="13">
         <v>45674</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -3730,7 +3733,7 @@
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="13">
         <v>45674</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -3751,7 +3754,7 @@
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="13">
         <v>45674</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -3772,7 +3775,7 @@
       <c r="A123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="13">
         <v>45674</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -3791,7 +3794,7 @@
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="13">
         <v>45674</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -3810,7 +3813,7 @@
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="13">
         <v>45674</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -3829,7 +3832,7 @@
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="13">
         <v>45674</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -3850,7 +3853,7 @@
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="13">
         <v>45674</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -3871,7 +3874,7 @@
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="13">
         <v>45674</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -3892,7 +3895,7 @@
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="13">
         <v>45674</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -3913,7 +3916,7 @@
       <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="13">
         <v>45674</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -3932,7 +3935,7 @@
       <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="13">
         <v>45674</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -3953,7 +3956,7 @@
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="13">
         <v>45674</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -3974,7 +3977,7 @@
       <c r="A133" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="13">
         <v>45678</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -3995,7 +3998,7 @@
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="13">
         <v>45672</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -4016,7 +4019,7 @@
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="13">
         <v>45672</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -4037,7 +4040,7 @@
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="13">
         <v>45673</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4058,7 +4061,7 @@
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="13">
         <v>45673</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -4079,7 +4082,7 @@
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="13">
         <v>45673</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -4100,7 +4103,7 @@
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="13">
         <v>45673</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -4121,7 +4124,7 @@
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="13">
         <v>45673</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -4142,7 +4145,7 @@
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="13">
         <v>45674</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -4163,7 +4166,7 @@
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="13">
         <v>45674</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -4184,7 +4187,7 @@
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="13">
         <v>45674</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -4205,7 +4208,7 @@
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="13">
         <v>45674</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -4226,7 +4229,7 @@
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="13">
         <v>45674</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -4247,7 +4250,7 @@
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="13">
         <v>45674</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -4268,7 +4271,7 @@
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="13">
         <v>45674</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -4289,7 +4292,7 @@
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="13">
         <v>45674</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -4310,7 +4313,7 @@
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="13">
         <v>45674</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -4331,7 +4334,7 @@
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="13">
         <v>45674</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -4352,7 +4355,7 @@
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="13">
         <v>45674</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -4373,7 +4376,7 @@
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="13">
         <v>45674</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -4394,7 +4397,7 @@
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="13">
         <v>45674</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -4415,7 +4418,7 @@
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="13">
         <v>45674</v>
       </c>
       <c r="C154" s="4" t="s">
@@ -4436,7 +4439,7 @@
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="13">
         <v>45674</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -4457,7 +4460,7 @@
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="13">
         <v>45674</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -4478,7 +4481,7 @@
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="13">
         <v>45674</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -4499,7 +4502,7 @@
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="13">
         <v>45674</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -4520,7 +4523,7 @@
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="13">
         <v>45677</v>
       </c>
       <c r="C159" s="4" t="s">
@@ -4539,7 +4542,7 @@
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="13">
         <v>45677</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -4560,7 +4563,7 @@
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="13">
         <v>45677</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -4581,7 +4584,7 @@
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="13">
         <v>45677</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -4602,7 +4605,7 @@
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="13">
         <v>45678</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -4623,7 +4626,7 @@
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="13">
         <v>45678</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -4644,7 +4647,7 @@
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="13">
         <v>45678</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -4665,7 +4668,7 @@
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="13">
         <v>45678</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -4686,7 +4689,7 @@
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="13">
         <v>45678</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -4707,7 +4710,7 @@
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="13">
         <v>45678</v>
       </c>
       <c r="C168" s="4" t="s">
@@ -4726,7 +4729,7 @@
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="13">
         <v>45678</v>
       </c>
       <c r="C169" s="4" t="s">
@@ -4745,5 +4748,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>